--- a/Mechanics/CAD_Model/Parts List.xlsx
+++ b/Mechanics/CAD_Model/Parts List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\IDP---JASMINE\Mechanics\CAD_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53586CDB-731F-4E44-88C7-4E6883EC10E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A426E280-C5FB-4F3E-A7BE-EE0A47BC1014}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Servo MC-410</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>PENDING</t>
   </si>
   <si>
     <t>Negligible</t>
@@ -129,18 +126,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -165,21 +156,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,26 +453,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -503,9 +494,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
       <c r="D2" t="s">
         <v>11</v>
       </c>
@@ -522,31 +513,38 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>21</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>21</v>
+      <c r="C3" s="9">
+        <f>300+184</f>
+        <v>484</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D4" si="0">C3*A3</f>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="9">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -573,7 +571,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -584,7 +582,7 @@
         <v>55</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D11" si="0">C6*A6</f>
+        <f t="shared" ref="D6:D11" si="1">C6*A6</f>
         <v>110</v>
       </c>
       <c r="E6">
@@ -600,7 +598,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -611,7 +609,7 @@
         <v>38</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="E7">
@@ -624,7 +622,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -635,11 +633,11 @@
         <v>151</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -650,11 +648,11 @@
         <v>30</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -665,11 +663,11 @@
         <v>50</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -680,11 +678,11 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -692,18 +690,18 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="7">
-        <f>SUM(D5:D11)</f>
-        <v>438</v>
-      </c>
-      <c r="D13" s="7"/>
+      <c r="C13" s="6">
+        <f>SUM(D3:D11)</f>
+        <v>972</v>
+      </c>
+      <c r="D13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
